--- a/natmiOut/OldD2/LR-pairs_lrc2p/App-Cd74.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/App-Cd74.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H2">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I2">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J2">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.56139784313273</v>
+        <v>2.567723</v>
       </c>
       <c r="N2">
-        <v>2.56139784313273</v>
+        <v>5.135446</v>
       </c>
       <c r="O2">
-        <v>0.0007281319967634575</v>
+        <v>0.0006390486781123314</v>
       </c>
       <c r="P2">
-        <v>0.0007281319967634575</v>
+        <v>0.0004261476301476093</v>
       </c>
       <c r="Q2">
-        <v>260.9363742538433</v>
+        <v>261.6313190642965</v>
       </c>
       <c r="R2">
-        <v>260.9363742538433</v>
+        <v>1046.525276257186</v>
       </c>
       <c r="S2">
-        <v>0.0001433122180127976</v>
+        <v>0.000121026189358787</v>
       </c>
       <c r="T2">
-        <v>0.0001433122180127976</v>
+        <v>5.887729813964762E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H3">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I3">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J3">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.408408520364358</v>
+        <v>0.5022653333333333</v>
       </c>
       <c r="N3">
-        <v>0.408408520364358</v>
+        <v>1.506796</v>
       </c>
       <c r="O3">
-        <v>0.0001160988372912827</v>
+        <v>0.0001250025790664788</v>
       </c>
       <c r="P3">
-        <v>0.0001160988372912827</v>
+        <v>0.0001250363735722072</v>
       </c>
       <c r="Q3">
-        <v>41.60565638171742</v>
+        <v>51.17699287667267</v>
       </c>
       <c r="R3">
-        <v>41.60565638171742</v>
+        <v>307.061957260036</v>
       </c>
       <c r="S3">
-        <v>2.285077699493791E-05</v>
+        <v>2.367360472307732E-05</v>
       </c>
       <c r="T3">
-        <v>2.285077699493791E-05</v>
+        <v>1.727524295409366E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H4">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I4">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J4">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>796.298143117813</v>
+        <v>1001.459981333333</v>
       </c>
       <c r="N4">
-        <v>796.298143117813</v>
+        <v>3004.379944</v>
       </c>
       <c r="O4">
-        <v>0.2263647400664112</v>
+        <v>0.2492409334081078</v>
       </c>
       <c r="P4">
-        <v>0.2263647400664112</v>
+        <v>0.2493083158110526</v>
       </c>
       <c r="Q4">
-        <v>81120.99838270337</v>
+        <v>102041.1064224396</v>
       </c>
       <c r="R4">
-        <v>81120.99838270337</v>
+        <v>612246.6385346374</v>
       </c>
       <c r="S4">
-        <v>0.04455350557729519</v>
+        <v>0.04720247679990999</v>
       </c>
       <c r="T4">
-        <v>0.04455350557729519</v>
+        <v>0.03444487074494909</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H5">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I5">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J5">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2709.37697963119</v>
+        <v>2986.508748333333</v>
       </c>
       <c r="N5">
-        <v>2709.37697963119</v>
+        <v>8959.526244999999</v>
       </c>
       <c r="O5">
-        <v>0.7701982241661377</v>
+        <v>0.7432750603524328</v>
       </c>
       <c r="P5">
-        <v>0.7701982241661377</v>
+        <v>0.7434760051127123</v>
       </c>
       <c r="Q5">
-        <v>276011.4003559566</v>
+        <v>304302.3812239526</v>
       </c>
       <c r="R5">
-        <v>276011.4003559566</v>
+        <v>1825814.287343715</v>
       </c>
       <c r="S5">
-        <v>0.1515917667475132</v>
+        <v>0.1407650954941261</v>
       </c>
       <c r="T5">
-        <v>0.1515917667475132</v>
+        <v>0.102719938622052</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H6">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I6">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J6">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.527415642228229</v>
+        <v>26.31081333333333</v>
       </c>
       <c r="N6">
-        <v>8.527415642228229</v>
+        <v>78.93244</v>
       </c>
       <c r="O6">
-        <v>0.002424099870098092</v>
+        <v>0.006548171465818925</v>
       </c>
       <c r="P6">
-        <v>0.002424099870098092</v>
+        <v>0.006549941767038025</v>
       </c>
       <c r="Q6">
-        <v>868.7103900724409</v>
+        <v>2680.870482546007</v>
       </c>
       <c r="R6">
-        <v>868.7103900724409</v>
+        <v>16085.22289527604</v>
       </c>
       <c r="S6">
-        <v>0.0004771155925196214</v>
+        <v>0.001240124996607382</v>
       </c>
       <c r="T6">
-        <v>0.0004771155925196214</v>
+        <v>0.0009049513523791016</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H7">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I7">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J7">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.593464903586556</v>
+        <v>0.690233</v>
       </c>
       <c r="N7">
-        <v>0.593464903586556</v>
+        <v>1.380466</v>
       </c>
       <c r="O7">
-        <v>0.0001687050632981733</v>
+        <v>0.0001717835164616701</v>
       </c>
       <c r="P7">
-        <v>0.0001687050632981733</v>
+        <v>0.0001145533054771386</v>
       </c>
       <c r="Q7">
-        <v>60.45783969247999</v>
+        <v>70.32945931150149</v>
       </c>
       <c r="R7">
-        <v>60.45783969247999</v>
+        <v>281.317837246006</v>
       </c>
       <c r="S7">
-        <v>3.320482676042184E-05</v>
+        <v>3.253320929075435E-05</v>
       </c>
       <c r="T7">
-        <v>3.320482676042184E-05</v>
+        <v>1.582688402402572E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H8">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I8">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J8">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.56139784313273</v>
+        <v>2.567723</v>
       </c>
       <c r="N8">
-        <v>2.56139784313273</v>
+        <v>5.135446</v>
       </c>
       <c r="O8">
-        <v>0.0007281319967634575</v>
+        <v>0.0006390486781123314</v>
       </c>
       <c r="P8">
-        <v>0.0007281319967634575</v>
+        <v>0.0004261476301476093</v>
       </c>
       <c r="Q8">
-        <v>164.490561846128</v>
+        <v>185.6560874520167</v>
       </c>
       <c r="R8">
-        <v>164.490561846128</v>
+        <v>1113.9365247121</v>
       </c>
       <c r="S8">
-        <v>9.034197446695246E-05</v>
+        <v>8.588134201952104E-05</v>
       </c>
       <c r="T8">
-        <v>9.034197446695246E-05</v>
+        <v>6.266984119932471E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H9">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I9">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J9">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.408408520364358</v>
+        <v>0.5022653333333333</v>
       </c>
       <c r="N9">
-        <v>0.408408520364358</v>
+        <v>1.506796</v>
       </c>
       <c r="O9">
-        <v>0.0001160988372912827</v>
+        <v>0.0001250025790664788</v>
       </c>
       <c r="P9">
-        <v>0.0001160988372912827</v>
+        <v>0.0001250363735722072</v>
       </c>
       <c r="Q9">
-        <v>26.22761128560764</v>
+        <v>36.31568383717777</v>
       </c>
       <c r="R9">
-        <v>26.22761128560764</v>
+        <v>326.8411545346</v>
       </c>
       <c r="S9">
-        <v>1.440480330604023E-05</v>
+        <v>1.679901643461882E-05</v>
       </c>
       <c r="T9">
-        <v>1.440480330604023E-05</v>
+        <v>1.83880165500285E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H10">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I10">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J10">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>796.298143117813</v>
+        <v>1001.459981333333</v>
       </c>
       <c r="N10">
-        <v>796.298143117813</v>
+        <v>3004.379944</v>
       </c>
       <c r="O10">
-        <v>0.2263647400664112</v>
+        <v>0.2492409334081078</v>
       </c>
       <c r="P10">
-        <v>0.2263647400664112</v>
+        <v>0.2493083158110526</v>
       </c>
       <c r="Q10">
-        <v>51137.5182538131</v>
+        <v>72409.34550732937</v>
       </c>
       <c r="R10">
-        <v>51137.5182538131</v>
+        <v>651684.1095659644</v>
       </c>
       <c r="S10">
-        <v>0.02808589329709344</v>
+        <v>0.03349532919857444</v>
       </c>
       <c r="T10">
-        <v>0.02808589329709344</v>
+        <v>0.03666361480442323</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H11">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I11">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J11">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2709.37697963119</v>
+        <v>2986.508748333333</v>
       </c>
       <c r="N11">
-        <v>2709.37697963119</v>
+        <v>8959.526244999999</v>
       </c>
       <c r="O11">
-        <v>0.7701982241661377</v>
+        <v>0.7432750603524328</v>
       </c>
       <c r="P11">
-        <v>0.7701982241661377</v>
+        <v>0.7434760051127123</v>
       </c>
       <c r="Q11">
-        <v>173993.6428959527</v>
+        <v>215935.8814625978</v>
       </c>
       <c r="R11">
-        <v>173993.6428959527</v>
+        <v>1943422.93316338</v>
       </c>
       <c r="S11">
-        <v>0.09556128368399892</v>
+        <v>0.09988825868674567</v>
       </c>
       <c r="T11">
-        <v>0.09556128368399892</v>
+        <v>0.1093365769974666</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H12">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I12">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J12">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.527415642228229</v>
+        <v>26.31081333333333</v>
       </c>
       <c r="N12">
-        <v>8.527415642228229</v>
+        <v>78.93244</v>
       </c>
       <c r="O12">
-        <v>0.002424099870098092</v>
+        <v>0.006548171465818925</v>
       </c>
       <c r="P12">
-        <v>0.002424099870098092</v>
+        <v>0.006549941767038025</v>
       </c>
       <c r="Q12">
-        <v>547.6226170199425</v>
+        <v>1902.371346577111</v>
       </c>
       <c r="R12">
-        <v>547.6226170199425</v>
+        <v>17121.342119194</v>
       </c>
       <c r="S12">
-        <v>0.0003007668520861455</v>
+        <v>0.0008800045638457785</v>
       </c>
       <c r="T12">
-        <v>0.0003007668520861455</v>
+        <v>0.0009632432081410699</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H13">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I13">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J13">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.593464903586556</v>
+        <v>0.690233</v>
       </c>
       <c r="N13">
-        <v>0.593464903586556</v>
+        <v>1.380466</v>
       </c>
       <c r="O13">
-        <v>0.0001687050632981733</v>
+        <v>0.0001717835164616701</v>
       </c>
       <c r="P13">
-        <v>0.0001687050632981733</v>
+        <v>0.0001145533054771386</v>
       </c>
       <c r="Q13">
-        <v>38.11175826849176</v>
+        <v>49.90645728151667</v>
       </c>
       <c r="R13">
-        <v>38.11175826849176</v>
+        <v>299.4387436891</v>
       </c>
       <c r="S13">
-        <v>2.093184833062686E-05</v>
+        <v>2.308587660980568E-05</v>
       </c>
       <c r="T13">
-        <v>2.093184833062686E-05</v>
+        <v>1.684636251672532E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H14">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I14">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J14">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.56139784313273</v>
+        <v>2.567723</v>
       </c>
       <c r="N14">
-        <v>2.56139784313273</v>
+        <v>5.135446</v>
       </c>
       <c r="O14">
-        <v>0.0007281319967634575</v>
+        <v>0.0006390486781123314</v>
       </c>
       <c r="P14">
-        <v>0.0007281319967634575</v>
+        <v>0.0004261476301476093</v>
       </c>
       <c r="Q14">
-        <v>368.6598836524798</v>
+        <v>390.4833597210933</v>
       </c>
       <c r="R14">
-        <v>368.6598836524798</v>
+        <v>2342.90015832656</v>
       </c>
       <c r="S14">
-        <v>0.0002024764303928724</v>
+        <v>0.000180630947411332</v>
       </c>
       <c r="T14">
-        <v>0.0002024764303928724</v>
+        <v>0.0001318110840347448</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H15">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I15">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J15">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.408408520364358</v>
+        <v>0.5022653333333333</v>
       </c>
       <c r="N15">
-        <v>0.408408520364358</v>
+        <v>1.506796</v>
       </c>
       <c r="O15">
-        <v>0.0001160988372912827</v>
+        <v>0.0001250025790664788</v>
       </c>
       <c r="P15">
-        <v>0.0001160988372912827</v>
+        <v>0.0001250363735722072</v>
       </c>
       <c r="Q15">
-        <v>58.78190223509279</v>
+        <v>76.38139115139556</v>
       </c>
       <c r="R15">
-        <v>58.78190223509279</v>
+        <v>687.43252036256</v>
       </c>
       <c r="S15">
-        <v>3.228436362087029E-05</v>
+        <v>3.533272982010462E-05</v>
       </c>
       <c r="T15">
-        <v>3.228436362087029E-05</v>
+        <v>3.867481308910996E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H16">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I16">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J16">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>796.298143117813</v>
+        <v>1001.459981333333</v>
       </c>
       <c r="N16">
-        <v>796.298143117813</v>
+        <v>3004.379944</v>
       </c>
       <c r="O16">
-        <v>0.2263647400664112</v>
+        <v>0.2492409334081078</v>
       </c>
       <c r="P16">
-        <v>0.2263647400664112</v>
+        <v>0.2493083158110526</v>
       </c>
       <c r="Q16">
-        <v>114610.5364231332</v>
+        <v>152295.8115564894</v>
       </c>
       <c r="R16">
-        <v>114610.5364231332</v>
+        <v>1370662.304008404</v>
       </c>
       <c r="S16">
-        <v>0.06294672496084103</v>
+        <v>0.07044944693129863</v>
       </c>
       <c r="T16">
-        <v>0.06294672496084103</v>
+        <v>0.077113181069548</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H17">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I17">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J17">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2709.37697963119</v>
+        <v>2986.508748333333</v>
       </c>
       <c r="N17">
-        <v>2709.37697963119</v>
+        <v>8959.526244999999</v>
       </c>
       <c r="O17">
-        <v>0.7701982241661377</v>
+        <v>0.7432750603524328</v>
       </c>
       <c r="P17">
-        <v>0.7701982241661377</v>
+        <v>0.7434760051127123</v>
       </c>
       <c r="Q17">
-        <v>389958.3989888534</v>
+        <v>454169.6942721771</v>
       </c>
       <c r="R17">
-        <v>389958.3989888534</v>
+        <v>4087527.248449593</v>
       </c>
       <c r="S17">
-        <v>0.214174061594975</v>
+        <v>0.2100911604030814</v>
       </c>
       <c r="T17">
-        <v>0.214174061594975</v>
+        <v>0.229963447535267</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H18">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I18">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J18">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.527415642228229</v>
+        <v>26.31081333333333</v>
       </c>
       <c r="N18">
-        <v>8.527415642228229</v>
+        <v>78.93244</v>
       </c>
       <c r="O18">
-        <v>0.002424099870098092</v>
+        <v>0.006548171465818925</v>
       </c>
       <c r="P18">
-        <v>0.002424099870098092</v>
+        <v>0.006549941767038025</v>
       </c>
       <c r="Q18">
-        <v>1227.34391572504</v>
+        <v>4001.185013879822</v>
       </c>
       <c r="R18">
-        <v>1227.34391572504</v>
+        <v>36010.6651249184</v>
       </c>
       <c r="S18">
-        <v>0.0006740853180398512</v>
+        <v>0.001850879997399527</v>
       </c>
       <c r="T18">
-        <v>0.0006740853180398512</v>
+        <v>0.002025952659595185</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H19">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I19">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J19">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.593464903586556</v>
+        <v>0.690233</v>
       </c>
       <c r="N19">
-        <v>0.593464903586556</v>
+        <v>1.380466</v>
       </c>
       <c r="O19">
-        <v>0.0001687050632981733</v>
+        <v>0.0001717835164616701</v>
       </c>
       <c r="P19">
-        <v>0.0001687050632981733</v>
+        <v>0.0001145533054771386</v>
       </c>
       <c r="Q19">
-        <v>85.41691517958873</v>
+        <v>104.9663459922933</v>
       </c>
       <c r="R19">
-        <v>85.41691517958873</v>
+        <v>629.79807595376</v>
       </c>
       <c r="S19">
-        <v>4.691292122534566E-05</v>
+        <v>4.855564277165643E-05</v>
       </c>
       <c r="T19">
-        <v>4.691292122534566E-05</v>
+        <v>3.543231102675562E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H20">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I20">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J20">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.56139784313273</v>
+        <v>2.567723</v>
       </c>
       <c r="N20">
-        <v>2.56139784313273</v>
+        <v>5.135446</v>
       </c>
       <c r="O20">
-        <v>0.0007281319967634575</v>
+        <v>0.0006390486781123314</v>
       </c>
       <c r="P20">
-        <v>0.0007281319967634575</v>
+        <v>0.0004261476301476093</v>
       </c>
       <c r="Q20">
-        <v>215.7572631498149</v>
+        <v>219.754803537636</v>
       </c>
       <c r="R20">
-        <v>215.7572631498149</v>
+        <v>1318.528821225816</v>
       </c>
       <c r="S20">
-        <v>0.0001184988180463131</v>
+        <v>0.0001016548269548452</v>
       </c>
       <c r="T20">
-        <v>0.0001184988180463131</v>
+        <v>7.418016198392555E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H21">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I21">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J21">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.408408520364358</v>
+        <v>0.5022653333333333</v>
       </c>
       <c r="N21">
-        <v>0.408408520364358</v>
+        <v>1.506796</v>
       </c>
       <c r="O21">
-        <v>0.0001160988372912827</v>
+        <v>0.0001250025790664788</v>
       </c>
       <c r="P21">
-        <v>0.0001160988372912827</v>
+        <v>0.0001250363735722072</v>
       </c>
       <c r="Q21">
-        <v>34.40195939772764</v>
+        <v>42.985641227824</v>
       </c>
       <c r="R21">
-        <v>34.40195939772764</v>
+        <v>386.870771050416</v>
       </c>
       <c r="S21">
-        <v>1.889434203787301E-05</v>
+        <v>1.988442505107353E-05</v>
       </c>
       <c r="T21">
-        <v>1.889434203787301E-05</v>
+        <v>2.176527050556682E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H22">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I22">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J22">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>796.298143117813</v>
+        <v>1001.459981333333</v>
       </c>
       <c r="N22">
-        <v>796.298143117813</v>
+        <v>3004.379944</v>
       </c>
       <c r="O22">
-        <v>0.2263647400664112</v>
+        <v>0.2492409334081078</v>
       </c>
       <c r="P22">
-        <v>0.2263647400664112</v>
+        <v>0.2493083158110526</v>
       </c>
       <c r="Q22">
-        <v>67075.52615108376</v>
+        <v>85708.48235916073</v>
       </c>
       <c r="R22">
-        <v>67075.52615108376</v>
+        <v>771376.3412324466</v>
       </c>
       <c r="S22">
-        <v>0.03683941134912753</v>
+        <v>0.03964728325627124</v>
       </c>
       <c r="T22">
-        <v>0.03683941134912753</v>
+        <v>0.0433974752937091</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H23">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I23">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J23">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2709.37697963119</v>
+        <v>2986.508748333333</v>
       </c>
       <c r="N23">
-        <v>2709.37697963119</v>
+        <v>8959.526244999999</v>
       </c>
       <c r="O23">
-        <v>0.7701982241661377</v>
+        <v>0.7432750603524328</v>
       </c>
       <c r="P23">
-        <v>0.7701982241661377</v>
+        <v>0.7434760051127123</v>
       </c>
       <c r="Q23">
-        <v>228222.1653046209</v>
+        <v>255595.9670312658</v>
       </c>
       <c r="R23">
-        <v>228222.1653046209</v>
+        <v>2300363.703281391</v>
       </c>
       <c r="S23">
-        <v>0.1253448270790742</v>
+        <v>0.118234338365531</v>
       </c>
       <c r="T23">
-        <v>0.1253448270790742</v>
+        <v>0.129417991768063</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H24">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I24">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J24">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.527415642228229</v>
+        <v>26.31081333333333</v>
       </c>
       <c r="N24">
-        <v>8.527415642228229</v>
+        <v>78.93244</v>
       </c>
       <c r="O24">
-        <v>0.002424099870098092</v>
+        <v>0.006548171465818925</v>
       </c>
       <c r="P24">
-        <v>0.002424099870098092</v>
+        <v>0.006549941767038025</v>
       </c>
       <c r="Q24">
-        <v>718.2999180079906</v>
+        <v>2251.772334859359</v>
       </c>
       <c r="R24">
-        <v>718.2999180079906</v>
+        <v>20265.95101373424</v>
       </c>
       <c r="S24">
-        <v>0.0003945067250301904</v>
+        <v>0.001041631506374027</v>
       </c>
       <c r="T24">
-        <v>0.0003945067250301904</v>
+        <v>0.001140158261811435</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H25">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I25">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J25">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.593464903586556</v>
+        <v>0.690233</v>
       </c>
       <c r="N25">
-        <v>0.593464903586556</v>
+        <v>1.380466</v>
       </c>
       <c r="O25">
-        <v>0.0001687050632981733</v>
+        <v>0.0001717835164616701</v>
       </c>
       <c r="P25">
-        <v>0.0001687050632981733</v>
+        <v>0.0001145533054771386</v>
       </c>
       <c r="Q25">
-        <v>49.99003326117384</v>
+        <v>59.072578042956</v>
       </c>
       <c r="R25">
-        <v>49.99003326117384</v>
+        <v>354.435468257736</v>
       </c>
       <c r="S25">
-        <v>2.745566832404483E-05</v>
+        <v>2.732596786083378E-05</v>
       </c>
       <c r="T25">
-        <v>2.745566832404483E-05</v>
+        <v>1.994046700000385E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H26">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I26">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J26">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.56139784313273</v>
+        <v>2.567723</v>
       </c>
       <c r="N26">
-        <v>2.56139784313273</v>
+        <v>5.135446</v>
       </c>
       <c r="O26">
-        <v>0.0007281319967634575</v>
+        <v>0.0006390486781123314</v>
       </c>
       <c r="P26">
-        <v>0.0007281319967634575</v>
+        <v>0.0004261476301476093</v>
       </c>
       <c r="Q26">
-        <v>222.6313869963769</v>
+        <v>228.4669866795313</v>
       </c>
       <c r="R26">
-        <v>222.6313869963769</v>
+        <v>1370.801920077188</v>
       </c>
       <c r="S26">
-        <v>0.0001222742439069755</v>
+        <v>0.0001056849343992844</v>
       </c>
       <c r="T26">
-        <v>0.0001222742439069755</v>
+        <v>7.712103584104123E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H27">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I27">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J27">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.408408520364358</v>
+        <v>0.5022653333333333</v>
       </c>
       <c r="N27">
-        <v>0.408408520364358</v>
+        <v>1.506796</v>
       </c>
       <c r="O27">
-        <v>0.0001160988372912827</v>
+        <v>0.0001250025790664788</v>
       </c>
       <c r="P27">
-        <v>0.0001160988372912827</v>
+        <v>0.0001250363735722072</v>
       </c>
       <c r="Q27">
-        <v>35.49802136112106</v>
+        <v>44.68980774805423</v>
       </c>
       <c r="R27">
-        <v>35.49802136112106</v>
+        <v>402.208269732488</v>
       </c>
       <c r="S27">
-        <v>1.949632430846501E-05</v>
+        <v>2.067274344014835E-05</v>
       </c>
       <c r="T27">
-        <v>1.949632430846501E-05</v>
+        <v>2.262815504654076E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H28">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I28">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J28">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>796.298143117813</v>
+        <v>1001.459981333333</v>
       </c>
       <c r="N28">
-        <v>796.298143117813</v>
+        <v>3004.379944</v>
       </c>
       <c r="O28">
-        <v>0.2263647400664112</v>
+        <v>0.2492409334081078</v>
       </c>
       <c r="P28">
-        <v>0.2263647400664112</v>
+        <v>0.2493083158110526</v>
       </c>
       <c r="Q28">
-        <v>69212.5827076257</v>
+        <v>89106.39668506548</v>
       </c>
       <c r="R28">
-        <v>69212.5827076257</v>
+        <v>801957.5701655893</v>
       </c>
       <c r="S28">
-        <v>0.03801313163252074</v>
+        <v>0.04121910051462791</v>
       </c>
       <c r="T28">
-        <v>0.03801313163252074</v>
+        <v>0.04511796898289447</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H29">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I29">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J29">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2709.37697963119</v>
+        <v>2986.508748333333</v>
       </c>
       <c r="N29">
-        <v>2709.37697963119</v>
+        <v>8959.526244999999</v>
       </c>
       <c r="O29">
-        <v>0.7701982241661377</v>
+        <v>0.7432750603524328</v>
       </c>
       <c r="P29">
-        <v>0.7701982241661377</v>
+        <v>0.7434760051127123</v>
       </c>
       <c r="Q29">
-        <v>235493.4265633678</v>
+        <v>265729.0737450167</v>
       </c>
       <c r="R29">
-        <v>235493.4265633678</v>
+        <v>2391561.66370515</v>
       </c>
       <c r="S29">
-        <v>0.1293383698793885</v>
+        <v>0.1229217408382825</v>
       </c>
       <c r="T29">
-        <v>0.1293383698793885</v>
+        <v>0.1345487703812667</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H30">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I30">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J30">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.527415642228229</v>
+        <v>26.31081333333333</v>
       </c>
       <c r="N30">
-        <v>8.527415642228229</v>
+        <v>78.93244</v>
       </c>
       <c r="O30">
-        <v>0.002424099870098092</v>
+        <v>0.006548171465818925</v>
       </c>
       <c r="P30">
-        <v>0.002424099870098092</v>
+        <v>0.006549941767038025</v>
       </c>
       <c r="Q30">
-        <v>741.1852778020369</v>
+        <v>2341.043889607369</v>
       </c>
       <c r="R30">
-        <v>741.1852778020369</v>
+        <v>21069.39500646632</v>
       </c>
       <c r="S30">
-        <v>0.00040707588746101</v>
+        <v>0.001082927006193873</v>
       </c>
       <c r="T30">
-        <v>0.00040707588746101</v>
+        <v>0.001185359856624106</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H31">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I31">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J31">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.593464903586556</v>
+        <v>0.690233</v>
       </c>
       <c r="N31">
-        <v>0.593464903586556</v>
+        <v>1.380466</v>
       </c>
       <c r="O31">
-        <v>0.0001687050632981733</v>
+        <v>0.0001717835164616701</v>
       </c>
       <c r="P31">
-        <v>0.0001687050632981733</v>
+        <v>0.0001145533054771386</v>
       </c>
       <c r="Q31">
-        <v>51.58273829790974</v>
+        <v>61.41451146279134</v>
       </c>
       <c r="R31">
-        <v>51.58273829790974</v>
+        <v>368.487068776748</v>
       </c>
       <c r="S31">
-        <v>2.833041831667225E-05</v>
+        <v>2.840930634855133E-05</v>
       </c>
       <c r="T31">
-        <v>2.833041831667225E-05</v>
+        <v>2.073100717315279E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H32">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I32">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J32">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.56139784313273</v>
+        <v>2.567723</v>
       </c>
       <c r="N32">
-        <v>2.56139784313273</v>
+        <v>5.135446</v>
       </c>
       <c r="O32">
-        <v>0.0007281319967634575</v>
+        <v>0.0006390486781123314</v>
       </c>
       <c r="P32">
-        <v>0.0007281319967634575</v>
+        <v>0.0004261476301476093</v>
       </c>
       <c r="Q32">
-        <v>93.27418249108803</v>
+        <v>95.48652246748949</v>
       </c>
       <c r="R32">
-        <v>93.27418249108803</v>
+        <v>381.946089869958</v>
       </c>
       <c r="S32">
-        <v>5.122831193754657E-05</v>
+        <v>4.417043796856158E-05</v>
       </c>
       <c r="T32">
-        <v>5.122831193754657E-05</v>
+        <v>2.148820894892528E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H33">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I33">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J33">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.408408520364358</v>
+        <v>0.5022653333333333</v>
       </c>
       <c r="N33">
-        <v>0.408408520364358</v>
+        <v>1.506796</v>
       </c>
       <c r="O33">
-        <v>0.0001160988372912827</v>
+        <v>0.0001250025790664788</v>
       </c>
       <c r="P33">
-        <v>0.0001160988372912827</v>
+        <v>0.0001250363735722072</v>
       </c>
       <c r="Q33">
-        <v>14.87233658820816</v>
+        <v>18.677859736418</v>
       </c>
       <c r="R33">
-        <v>14.87233658820816</v>
+        <v>112.067158418508</v>
       </c>
       <c r="S33">
-        <v>8.168227023096233E-06</v>
+        <v>8.640059597456153E-06</v>
       </c>
       <c r="T33">
-        <v>8.168227023096233E-06</v>
+        <v>6.304875426867464E-06</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H34">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I34">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J34">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>796.298143117813</v>
+        <v>1001.459981333333</v>
       </c>
       <c r="N34">
-        <v>796.298143117813</v>
+        <v>3004.379944</v>
       </c>
       <c r="O34">
-        <v>0.2263647400664112</v>
+        <v>0.2492409334081078</v>
       </c>
       <c r="P34">
-        <v>0.2263647400664112</v>
+        <v>0.2493083158110526</v>
       </c>
       <c r="Q34">
-        <v>28997.47047012587</v>
+        <v>37241.52917112826</v>
       </c>
       <c r="R34">
-        <v>28997.47047012587</v>
+        <v>223449.1750267695</v>
       </c>
       <c r="S34">
-        <v>0.01592607324953329</v>
+        <v>0.01722729670742554</v>
       </c>
       <c r="T34">
-        <v>0.01592607324953329</v>
+        <v>0.01257120491552874</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H35">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I35">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J35">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2709.37697963119</v>
+        <v>2986.508748333333</v>
       </c>
       <c r="N35">
-        <v>2709.37697963119</v>
+        <v>8959.526244999999</v>
       </c>
       <c r="O35">
-        <v>0.7701982241661377</v>
+        <v>0.7432750603524328</v>
       </c>
       <c r="P35">
-        <v>0.7701982241661377</v>
+        <v>0.7434760051127123</v>
       </c>
       <c r="Q35">
-        <v>98662.89358867747</v>
+        <v>111060.0071335906</v>
       </c>
       <c r="R35">
-        <v>98662.89358867747</v>
+        <v>666360.0428015437</v>
       </c>
       <c r="S35">
-        <v>0.05418791518118804</v>
+        <v>0.05137446656466604</v>
       </c>
       <c r="T35">
-        <v>0.05418791518118804</v>
+        <v>0.03748927980859693</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H36">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I36">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J36">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.527415642228229</v>
+        <v>26.31081333333333</v>
       </c>
       <c r="N36">
-        <v>8.527415642228229</v>
+        <v>78.93244</v>
       </c>
       <c r="O36">
-        <v>0.002424099870098092</v>
+        <v>0.006548171465818925</v>
       </c>
       <c r="P36">
-        <v>0.002424099870098092</v>
+        <v>0.006549941767038025</v>
       </c>
       <c r="Q36">
-        <v>310.5287704223846</v>
+        <v>978.4264379340199</v>
       </c>
       <c r="R36">
-        <v>310.5287704223846</v>
+        <v>5870.558627604119</v>
       </c>
       <c r="S36">
-        <v>0.0001705494949612733</v>
+        <v>0.0004526033953983366</v>
       </c>
       <c r="T36">
-        <v>0.0001705494949612733</v>
+        <v>0.0003302764284871279</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H37">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I37">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J37">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.593464903586556</v>
+        <v>0.690233</v>
       </c>
       <c r="N37">
-        <v>0.593464903586556</v>
+        <v>1.380466</v>
       </c>
       <c r="O37">
-        <v>0.0001687050632981733</v>
+        <v>0.0001717835164616701</v>
       </c>
       <c r="P37">
-        <v>0.0001687050632981733</v>
+        <v>0.0001145533054771386</v>
       </c>
       <c r="Q37">
-        <v>21.61122836407414</v>
+        <v>25.6678578111045</v>
       </c>
       <c r="R37">
-        <v>21.61122836407414</v>
+        <v>102.671431244418</v>
       </c>
       <c r="S37">
-        <v>1.186938034106195E-05</v>
+        <v>1.187351358006848E-05</v>
       </c>
       <c r="T37">
-        <v>1.186938034106195E-05</v>
+        <v>5.776273736475289E-06</v>
       </c>
     </row>
   </sheetData>
